--- a/ope.ed.gov/2001/criminal-offenses-reported-by-local-state-police-virginia-colleges-and-universities-crime-2001.xlsx
+++ b/ope.ed.gov/2001/criminal-offenses-reported-by-local-state-police-virginia-colleges-and-universities-crime-2001.xlsx
@@ -13,16 +13,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
-    <t>Criminal Offenses - Reported by Local &amp; State Police</t>
-  </si>
-  <si>
-    <t>Survey year</t>
-  </si>
-  <si>
-    <t>Unitid</t>
-  </si>
-  <si>
-    <t>Institution name</t>
+    <t>Survey Year</t>
+  </si>
+  <si>
+    <t>UnitID</t>
+  </si>
+  <si>
+    <t>Institution Name</t>
   </si>
   <si>
     <t>Campus ID</t>
@@ -34,28 +31,28 @@
     <t>Institution Size</t>
   </si>
   <si>
-    <t>Murder/Non-negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Negligent manslaughter</t>
-  </si>
-  <si>
-    <t>Sex offenses - Forcible</t>
-  </si>
-  <si>
-    <t>Sex offenses - Non-forcible</t>
+    <t>Murder/Non-Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Negligent Manslaughter</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Forcible</t>
+  </si>
+  <si>
+    <t>Sex Offenses - Non-Forcible</t>
   </si>
   <si>
     <t>Robbery</t>
   </si>
   <si>
-    <t>Aggravated assault</t>
+    <t>Aggravated Assault</t>
   </si>
   <si>
     <t>Burglary</t>
   </si>
   <si>
-    <t>Motor vehicle theft</t>
+    <t>Motor Vehicle Theft</t>
   </si>
   <si>
     <t>Arson</t>
@@ -265,52 +262,94 @@
       <c t="s" s="1" r="A1">
         <v>0</v>
       </c>
+      <c t="s" s="1" r="B1">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="C1">
+        <v>2</v>
+      </c>
+      <c t="s" s="1" r="D1">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="E1">
+        <v>4</v>
+      </c>
+      <c t="s" s="1" r="F1">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="G1">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="H1">
+        <v>7</v>
+      </c>
+      <c t="s" s="1" r="I1">
+        <v>8</v>
+      </c>
+      <c t="s" s="1" r="J1">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="K1">
+        <v>10</v>
+      </c>
+      <c t="s" s="1" r="L1">
+        <v>11</v>
+      </c>
+      <c t="s" s="1" r="M1">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="N1">
+        <v>13</v>
+      </c>
+      <c t="s" s="1" r="O1">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
-      <c t="s" s="1" r="A2">
-        <v>1</v>
-      </c>
-      <c t="s" s="1" r="B2">
-        <v>2</v>
+      <c s="1" r="A2">
+        <v>2001.0</v>
+      </c>
+      <c s="1" r="B2">
+        <v>231828.0</v>
       </c>
       <c t="s" s="1" r="C2">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="D2">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c s="1" r="D2">
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E2">
-        <v>5</v>
-      </c>
-      <c t="s" s="1" r="F2">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="G2">
-        <v>7</v>
-      </c>
-      <c t="s" s="1" r="H2">
-        <v>8</v>
-      </c>
-      <c t="s" s="1" r="I2">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="J2">
-        <v>10</v>
-      </c>
-      <c t="s" s="1" r="K2">
-        <v>11</v>
-      </c>
-      <c t="s" s="1" r="L2">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="M2">
-        <v>13</v>
-      </c>
-      <c t="s" s="1" r="N2">
-        <v>14</v>
-      </c>
-      <c t="s" s="1" r="O2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c s="1" r="F2">
+        <v>295.0</v>
+      </c>
+      <c s="1" r="G2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="H2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="I2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="J2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="K2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="L2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="M2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="N2">
+        <v>0.0</v>
+      </c>
+      <c s="1" r="O2">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -318,19 +357,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B3">
-        <v>231828.0</v>
+        <v>231785.0</v>
       </c>
       <c t="s" s="1" r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c s="1" r="D3">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c s="1" r="F3">
-        <v>295.0</v>
+        <v>297.0</v>
       </c>
       <c s="1" r="G3">
         <v>0.0</v>
@@ -365,19 +404,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B4">
-        <v>231785.0</v>
+        <v>232186.0</v>
       </c>
       <c t="s" s="1" r="C4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c s="1" r="D4">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1" r="F4">
-        <v>297.0</v>
+        <v>24897.0</v>
       </c>
       <c s="1" r="G4">
         <v>0.0</v>
@@ -392,16 +431,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K4">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c s="1" r="L4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="M4">
-        <v>0.0</v>
+        <v>16.0</v>
       </c>
       <c s="1" r="N4">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c s="1" r="O4">
         <v>0.0</v>
@@ -412,19 +451,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B5">
-        <v>232186.0</v>
+        <v>406495.0</v>
       </c>
       <c t="s" s="1" r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c s="1" r="D5">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c s="1" r="F5">
-        <v>24897.0</v>
+        <v>133.0</v>
       </c>
       <c s="1" r="G5">
         <v>0.0</v>
@@ -439,16 +478,16 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K5">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M5">
-        <v>16.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N5">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O5">
         <v>0.0</v>
@@ -459,19 +498,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B6">
-        <v>406495.0</v>
+        <v>232557.0</v>
       </c>
       <c t="s" s="1" r="C6">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c s="1" r="D6">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c s="1" r="F6">
-        <v>133.0</v>
+        <v>6162.0</v>
       </c>
       <c s="1" r="G6">
         <v>0.0</v>
@@ -506,19 +545,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B7">
-        <v>232557.0</v>
+        <v>433299.0</v>
       </c>
       <c t="s" s="1" r="C7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c s="1" r="D7">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c s="1" r="F7">
-        <v>6162.0</v>
+        <v>34.0</v>
       </c>
       <c s="1" r="G7">
         <v>0.0</v>
@@ -553,19 +592,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B8">
-        <v>433299.0</v>
+        <v>233417.0</v>
       </c>
       <c t="s" s="1" r="C8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c s="1" r="D8">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c s="1" r="F8">
-        <v>34.0</v>
+        <v>15.0</v>
       </c>
       <c s="1" r="G8">
         <v>0.0</v>
@@ -600,19 +639,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B9">
-        <v>233417.0</v>
+        <v>233310.0</v>
       </c>
       <c t="s" s="1" r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c s="1" r="D9">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c s="1" r="F9">
-        <v>15.0</v>
+        <v>2058.0</v>
       </c>
       <c s="1" r="G9">
         <v>0.0</v>
@@ -647,19 +686,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B10">
-        <v>233310.0</v>
+        <v>233338.0</v>
       </c>
       <c t="s" s="1" r="C10">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c s="1" r="D10">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E10">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c s="1" r="F10">
-        <v>2058.0</v>
+        <v>1304.0</v>
       </c>
       <c s="1" r="G10">
         <v>0.0</v>
@@ -694,19 +733,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B11">
-        <v>233338.0</v>
+        <v>233408.0</v>
       </c>
       <c t="s" s="1" r="C11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c s="1" r="D11">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c s="1" r="F11">
-        <v>1304.0</v>
+        <v>136.0</v>
       </c>
       <c s="1" r="G11">
         <v>0.0</v>
@@ -741,19 +780,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B12">
-        <v>233408.0</v>
+        <v>233666.0</v>
       </c>
       <c t="s" s="1" r="C12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c s="1" r="D12">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c s="1" r="F12">
-        <v>136.0</v>
+        <v>25.0</v>
       </c>
       <c s="1" r="G12">
         <v>0.0</v>
@@ -788,19 +827,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B13">
-        <v>233666.0</v>
+        <v>438498.0</v>
       </c>
       <c t="s" s="1" r="C13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c s="1" r="D13">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" r="F13">
-        <v>25.0</v>
+        <v>686.0</v>
       </c>
       <c s="1" r="G13">
         <v>0.0</v>
@@ -835,19 +874,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B14">
-        <v>438498.0</v>
+        <v>233897.0</v>
       </c>
       <c t="s" s="1" r="C14">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" r="D14">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E14">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c s="1" r="F14">
-        <v>686.0</v>
+        <v>1480.0</v>
       </c>
       <c s="1" r="G14">
         <v>0.0</v>
@@ -882,19 +921,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B15">
-        <v>233897.0</v>
+        <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C15">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c s="1" r="D15">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E15">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" r="F15">
-        <v>1480.0</v>
+        <v>22739.0</v>
       </c>
       <c s="1" r="G15">
         <v>0.0</v>
@@ -932,13 +971,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C16">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" r="D16">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c t="s" s="1" r="E16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c s="1" r="F16">
         <v>22739.0</v>
@@ -956,7 +995,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K16">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="L16">
         <v>0.0</v>
@@ -965,10 +1004,10 @@
         <v>0.0</v>
       </c>
       <c s="1" r="N16">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="O16">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -979,13 +1018,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C17">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c s="1" r="D17">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c t="s" s="1" r="E17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c s="1" r="F17">
         <v>22739.0</v>
@@ -1003,19 +1042,19 @@
         <v>0.0</v>
       </c>
       <c s="1" r="K17">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L17">
         <v>0.0</v>
       </c>
       <c s="1" r="M17">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c s="1" r="N17">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O17">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -1026,13 +1065,13 @@
         <v>234076.0</v>
       </c>
       <c t="s" s="1" r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c s="1" r="D18">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c t="s" s="1" r="E18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c s="1" r="F18">
         <v>22739.0</v>
@@ -1056,7 +1095,7 @@
         <v>0.0</v>
       </c>
       <c s="1" r="M18">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N18">
         <v>0.0</v>
@@ -1070,19 +1109,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B19">
-        <v>234076.0</v>
+        <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C19">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c s="1" r="D19">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E19">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" r="F19">
-        <v>22739.0</v>
+        <v>25001.0</v>
       </c>
       <c s="1" r="G19">
         <v>0.0</v>
@@ -1091,22 +1130,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I19">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c s="1" r="J19">
         <v>0.0</v>
       </c>
       <c s="1" r="K19">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c s="1" r="L19">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c s="1" r="M19">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c s="1" r="N19">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c s="1" r="O19">
         <v>0.0</v>
@@ -1120,13 +1159,13 @@
         <v>234030.0</v>
       </c>
       <c t="s" s="1" r="C20">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c s="1" r="D20">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c t="s" s="1" r="E20">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c s="1" r="F20">
         <v>25001.0</v>
@@ -1138,22 +1177,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I20">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c s="1" r="J20">
         <v>0.0</v>
       </c>
       <c s="1" r="K20">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c s="1" r="L20">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c s="1" r="M20">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c s="1" r="N20">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c s="1" r="O20">
         <v>0.0</v>
@@ -1164,19 +1203,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B21">
-        <v>234030.0</v>
+        <v>234119.0</v>
       </c>
       <c t="s" s="1" r="C21">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c s="1" r="D21">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c t="s" s="1" r="E21">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c s="1" r="F21">
-        <v>25001.0</v>
+        <v>151.0</v>
       </c>
       <c s="1" r="G21">
         <v>0.0</v>
@@ -1185,22 +1224,22 @@
         <v>0.0</v>
       </c>
       <c s="1" r="I21">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="J21">
         <v>0.0</v>
       </c>
       <c s="1" r="K21">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="L21">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="M21">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="N21">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c s="1" r="O21">
         <v>0.0</v>
@@ -1211,19 +1250,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B22">
-        <v>234119.0</v>
+        <v>233949.0</v>
       </c>
       <c t="s" s="1" r="C22">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c s="1" r="D22">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E22">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c s="1" r="F22">
-        <v>151.0</v>
+        <v>7904.0</v>
       </c>
       <c s="1" r="G22">
         <v>0.0</v>
@@ -1258,19 +1297,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B23">
-        <v>233949.0</v>
+        <v>234191.0</v>
       </c>
       <c t="s" s="1" r="C23">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="1" r="D23">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E23">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c s="1" r="F23">
-        <v>7904.0</v>
+        <v>62.0</v>
       </c>
       <c s="1" r="G23">
         <v>0.0</v>
@@ -1305,19 +1344,19 @@
         <v>2001.0</v>
       </c>
       <c s="1" r="B24">
-        <v>234191.0</v>
+        <v>234359.0</v>
       </c>
       <c t="s" s="1" r="C24">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c s="1" r="D24">
         <v>1.0</v>
       </c>
       <c t="s" s="1" r="E24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c s="1" r="F24">
-        <v>62.0</v>
+        <v>238.0</v>
       </c>
       <c s="1" r="G24">
         <v>0.0</v>
@@ -1344,53 +1383,6 @@
         <v>0.0</v>
       </c>
       <c s="1" r="O24">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c s="1" r="A25">
-        <v>2001.0</v>
-      </c>
-      <c s="1" r="B25">
-        <v>234359.0</v>
-      </c>
-      <c t="s" s="1" r="C25">
-        <v>60</v>
-      </c>
-      <c s="1" r="D25">
-        <v>1.0</v>
-      </c>
-      <c t="s" s="1" r="E25">
-        <v>61</v>
-      </c>
-      <c s="1" r="F25">
-        <v>238.0</v>
-      </c>
-      <c s="1" r="G25">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="H25">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="I25">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="J25">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="K25">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="L25">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="M25">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="N25">
-        <v>0.0</v>
-      </c>
-      <c s="1" r="O25">
         <v>0.0</v>
       </c>
     </row>
